--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2383324.436954714</v>
+        <v>-2385938.715571166</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>35.3686489236319</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>141.7695293810305</v>
       </c>
       <c r="H2" t="n">
         <v>297.6072935907341</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>52.86845664851265</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>115.8619247783173</v>
+        <v>115.8619247783174</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>205.2000830738755</v>
       </c>
       <c r="U2" t="n">
         <v>251.0186029205788</v>
@@ -753,10 +753,10 @@
         <v>135.1561775373476</v>
       </c>
       <c r="H3" t="n">
-        <v>91.11034837618719</v>
+        <v>91.1103483761872</v>
       </c>
       <c r="I3" t="n">
-        <v>14.08691327674306</v>
+        <v>14.08691327674309</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>53.02159927470731</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>145.9230939674644</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>100.3033462869334</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>94.83943180792917</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>192.0586035981866</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.1102960603998</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2190043347733</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>156.1811594370563</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>151.2796191728997</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>201.7191684666485</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>57.68750238080805</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,19 +1108,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>10.44576199527154</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>146.5990350281149</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>381.3653186193749</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>130.3863236130828</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>31.24123032771236</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>36.21070476472249</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.405450327288</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>212.3267021497091</v>
       </c>
     </row>
     <row r="14">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>78.89395497654121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>65.06198119184029</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>108.2950343703265</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673015</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922689</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856559</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012173</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,19 +2293,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>240.5320234084489</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>178.2798710842922</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>100.1987639469982</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856559</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788180001</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2959,7 +2959,7 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308928</v>
       </c>
       <c r="G31" t="n">
         <v>141.2394908002291</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3190,10 +3190,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,10 +3484,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1150.459761123536</v>
+        <v>556.5871098736798</v>
       </c>
       <c r="C2" t="n">
-        <v>781.4972441831244</v>
+        <v>556.5871098736798</v>
       </c>
       <c r="D2" t="n">
-        <v>781.4972441831244</v>
+        <v>556.5871098736798</v>
       </c>
       <c r="E2" t="n">
-        <v>395.7089915848801</v>
+        <v>556.5871098736798</v>
       </c>
       <c r="F2" t="n">
-        <v>359.9830835812115</v>
+        <v>556.5871098736798</v>
       </c>
       <c r="G2" t="n">
-        <v>359.9830835812115</v>
+        <v>413.3855650443555</v>
       </c>
       <c r="H2" t="n">
-        <v>59.36965571178319</v>
+        <v>112.7721371749273</v>
       </c>
       <c r="I2" t="n">
-        <v>59.36965571178319</v>
+        <v>59.36965571178315</v>
       </c>
       <c r="J2" t="n">
-        <v>223.6389510734998</v>
+        <v>223.6389510734989</v>
       </c>
       <c r="K2" t="n">
-        <v>520.5745606447445</v>
+        <v>520.5745606447431</v>
       </c>
       <c r="L2" t="n">
-        <v>925.8512030185038</v>
+        <v>925.8512030185016</v>
       </c>
       <c r="M2" t="n">
-        <v>1408.468993552359</v>
+        <v>1408.468993552356</v>
       </c>
       <c r="N2" t="n">
-        <v>1903.50985287725</v>
+        <v>1903.509852877247</v>
       </c>
       <c r="O2" t="n">
-        <v>2357.627637384227</v>
+        <v>2357.627637384224</v>
       </c>
       <c r="P2" t="n">
-        <v>2710.705659215711</v>
+        <v>2710.705659215709</v>
       </c>
       <c r="Q2" t="n">
-        <v>2927.679802719474</v>
+        <v>2927.679802719472</v>
       </c>
       <c r="R2" t="n">
-        <v>2968.482785589159</v>
+        <v>2968.482785589157</v>
       </c>
       <c r="S2" t="n">
-        <v>2851.450538338333</v>
+        <v>2851.450538338332</v>
       </c>
       <c r="T2" t="n">
-        <v>2851.450538338333</v>
+        <v>2644.177727152599</v>
       </c>
       <c r="U2" t="n">
-        <v>2597.896393974112</v>
+        <v>2390.623582788378</v>
       </c>
       <c r="V2" t="n">
-        <v>2266.833506630542</v>
+        <v>2059.560695444807</v>
       </c>
       <c r="W2" t="n">
-        <v>1914.064851360428</v>
+        <v>1706.792040174693</v>
       </c>
       <c r="X2" t="n">
-        <v>1540.599093099348</v>
+        <v>1333.326281913613</v>
       </c>
       <c r="Y2" t="n">
-        <v>1150.459761123536</v>
+        <v>943.1869499378015</v>
       </c>
     </row>
     <row r="3">
@@ -4401,28 +4401,28 @@
         <v>165.6295159672683</v>
       </c>
       <c r="H3" t="n">
-        <v>73.59886104182668</v>
+        <v>73.59886104182667</v>
       </c>
       <c r="I3" t="n">
-        <v>59.36965571178319</v>
+        <v>59.36965571178315</v>
       </c>
       <c r="J3" t="n">
-        <v>138.3894757148952</v>
+        <v>138.3894757148951</v>
       </c>
       <c r="K3" t="n">
-        <v>351.6017589168903</v>
+        <v>351.60175891689</v>
       </c>
       <c r="L3" t="n">
-        <v>924.3623438981792</v>
+        <v>684.6145268671326</v>
       </c>
       <c r="M3" t="n">
-        <v>1332.329405070861</v>
+        <v>1092.581588039814</v>
       </c>
       <c r="N3" t="n">
-        <v>1765.502785324652</v>
+        <v>1525.754968293605</v>
       </c>
       <c r="O3" t="n">
-        <v>2139.552005769182</v>
+        <v>1899.804188738135</v>
       </c>
       <c r="P3" t="n">
         <v>2420.426415694429</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>508.5303502087895</v>
+        <v>1850.49817086859</v>
       </c>
       <c r="C4" t="n">
-        <v>508.5303502087895</v>
+        <v>1681.561987940683</v>
       </c>
       <c r="D4" t="n">
-        <v>508.5303502087895</v>
+        <v>1531.445348528347</v>
       </c>
       <c r="E4" t="n">
-        <v>454.9731792242368</v>
+        <v>1383.532254945954</v>
       </c>
       <c r="F4" t="n">
-        <v>308.0832317263264</v>
+        <v>1236.642307448044</v>
       </c>
       <c r="G4" t="n">
-        <v>308.0832317263264</v>
+        <v>1236.642307448044</v>
       </c>
       <c r="H4" t="n">
-        <v>160.686167112726</v>
+        <v>1236.642307448044</v>
       </c>
       <c r="I4" t="n">
-        <v>59.36965571178319</v>
+        <v>1236.642307448044</v>
       </c>
       <c r="J4" t="n">
-        <v>95.29667538945995</v>
+        <v>1272.569327125721</v>
       </c>
       <c r="K4" t="n">
-        <v>284.172641777821</v>
+        <v>1461.445293514082</v>
       </c>
       <c r="L4" t="n">
-        <v>581.3952856386279</v>
+        <v>1758.667937374889</v>
       </c>
       <c r="M4" t="n">
-        <v>905.1640129945959</v>
+        <v>2082.436664730857</v>
       </c>
       <c r="N4" t="n">
-        <v>1226.66886009458</v>
+        <v>2403.94151183084</v>
       </c>
       <c r="O4" t="n">
-        <v>1507.614327944344</v>
+        <v>2684.886979680605</v>
       </c>
       <c r="P4" t="n">
-        <v>1724.491028290281</v>
+        <v>2901.763680026541</v>
       </c>
       <c r="Q4" t="n">
-        <v>1791.210133852897</v>
+        <v>2968.482785589157</v>
       </c>
       <c r="R4" t="n">
-        <v>1695.412727986302</v>
+        <v>2968.482785589157</v>
       </c>
       <c r="S4" t="n">
-        <v>1501.414138493185</v>
+        <v>2968.482785589157</v>
       </c>
       <c r="T4" t="n">
-        <v>1501.414138493185</v>
+        <v>2746.149153204915</v>
       </c>
       <c r="U4" t="n">
-        <v>1501.414138493185</v>
+        <v>2457.039047816255</v>
       </c>
       <c r="V4" t="n">
-        <v>1246.729650287298</v>
+        <v>2299.280300910138</v>
       </c>
       <c r="W4" t="n">
-        <v>957.312480250337</v>
+        <v>2299.280300910138</v>
       </c>
       <c r="X4" t="n">
-        <v>729.3229293523196</v>
+        <v>2071.29075001212</v>
       </c>
       <c r="Y4" t="n">
-        <v>508.5303502087895</v>
+        <v>1850.49817086859</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221567</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1012.316163281155</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>654.0504646744046</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>268.2622120761603</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>261.3167113269569</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>3011.558417311368</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792694</v>
+        <v>2680.495529967797</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2327.726874697683</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.0178522615</v>
+        <v>2327.726874697683</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285688</v>
+        <v>2327.726874697683</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,25 +4659,25 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>212.7293032143256</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="C7" t="n">
-        <v>212.7293032143256</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="D7" t="n">
-        <v>212.7293032143256</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
         <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1869.024343663434</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1677.33845949026</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1455.571844059787</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1166.46897718543</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>911.7844889795433</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W7" t="n">
-        <v>622.3673189425826</v>
+        <v>1158.775828293787</v>
       </c>
       <c r="X7" t="n">
-        <v>394.3777680445653</v>
+        <v>930.7862773957696</v>
       </c>
       <c r="Y7" t="n">
-        <v>394.3777680445653</v>
+        <v>709.9936982522395</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1619.798686923957</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C8" t="n">
-        <v>1250.836169983545</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D8" t="n">
-        <v>892.5704713767946</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3067.235319774533</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3067.235319774533</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2736.172432430963</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>2383.403777160848</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X8" t="n">
-        <v>2009.938018899768</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y8" t="n">
-        <v>1619.798686923957</v>
+        <v>1644.355021708206</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4878,22 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>810.3754302374108</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="C10" t="n">
-        <v>641.4392473095039</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>491.3226078971682</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>491.3226078971682</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>344.4326603992578</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1614.221408362027</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484845</v>
+        <v>1325.11854148767</v>
       </c>
       <c r="V10" t="n">
-        <v>1259.157560278958</v>
+        <v>1325.11854148767</v>
       </c>
       <c r="W10" t="n">
-        <v>1259.157560278958</v>
+        <v>1325.11854148767</v>
       </c>
       <c r="X10" t="n">
-        <v>1031.168009380941</v>
+        <v>1325.11854148767</v>
       </c>
       <c r="Y10" t="n">
-        <v>810.3754302374108</v>
+        <v>1104.32596234414</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5027,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,10 +5036,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5048,16 +5048,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5118,22 +5118,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703112</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424043</v>
+        <v>929.7309773356196</v>
       </c>
       <c r="D13" t="n">
-        <v>526.5658826424043</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>526.5658826424043</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>379.675935144494</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>212.4798358593739</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5206,43 +5206,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138413</v>
+        <v>1494.787041406604</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703112</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,10 +5288,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,22 +5352,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
         <v>2129.438138565707</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>741.8431516380889</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>572.906968710182</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>422.7903292978463</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>422.7903292978463</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>422.7903292978463</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>255.5942300127262</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5440,46 +5440,46 @@
         <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2131.343372566517</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1842.268145910715</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1587.583657704828</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1298.166487667867</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1070.17693676985</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y16" t="n">
-        <v>849.3843576263199</v>
+        <v>923.4916164683286</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5598,22 +5598,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N18" t="n">
-        <v>1965.532750177311</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121644</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121644</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>235.528494205774</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>235.528494205774</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>235.528494205774</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,7 +5671,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
         <v>435.7419440038341</v>
@@ -5683,10 +5683,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
         <v>378.192580311172</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>139.234765840794</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>849.3843576263201</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356199</v>
+        <v>680.4481746984133</v>
       </c>
       <c r="D22" t="n">
-        <v>779.614337923284</v>
+        <v>530.3315352860775</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408909</v>
+        <v>382.4184417036844</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429804</v>
+        <v>235.528494205774</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578603</v>
+        <v>235.528494205774</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
         <v>435.7419440038341</v>
@@ -5926,13 +5926,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487567</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854705</v>
+        <v>1734.499440703994</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854705</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="W22" t="n">
-        <v>1508.305175991784</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X22" t="n">
-        <v>1280.315625093767</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093767</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="23">
@@ -5969,37 +5969,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6069,25 +6069,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1051.964939354869</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C25" t="n">
-        <v>883.0287564269618</v>
+        <v>402.7245934908937</v>
       </c>
       <c r="D25" t="n">
-        <v>732.9121170146261</v>
+        <v>402.7245934908937</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408908</v>
+        <v>402.7245934908937</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429804</v>
+        <v>402.7245934908937</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235164</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258105</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602303</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396416</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.747069396416</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.757518498399</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.964939354869</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,28 +6245,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2978.493192213311</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C28" t="n">
-        <v>2834.086956247061</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D28" t="n">
-        <v>2708.500263796381</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>2585.117117175644</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>2462.75711663939</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G28" t="n">
-        <v>2320.090964315926</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
-        <v>2202.90908011978</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>2145.35232372935</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>2249.630143176793</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>2535.361206719451</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L28" t="n">
-        <v>2949.801601912511</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M28" t="n">
-        <v>3395.853105660665</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N28" t="n">
-        <v>3837.304778337793</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>4230.875860063898</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P28" t="n">
-        <v>4547.593116654575</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>4648.317395612652</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>4489.992508229213</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
-        <v>4294.920990213811</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>4030.375710519665</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>3800.221169275434</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
-        <v>3535.33394620013</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>3331.874342263769</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
-        <v>3135.611710081895</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,28 +6540,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>172.349019141113</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2737913123336</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F31" t="n">
         <v>411.2214559580113</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6686,40 +6686,40 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>139.234765840794</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C34" t="n">
         <v>782.5512955656811</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150018</v>
       </c>
       <c r="E34" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942649</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345473</v>
@@ -6856,13 +6856,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L34" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6886,13 +6886,13 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.79828551875</v>
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1965.532750177311</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2389.155899672379</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,55 +7072,55 @@
         <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7318,25 +7318,25 @@
         <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954145</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311318</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7369,13 +7369,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>3212.252935505192</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3809.631423131744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>3869.022106831312</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,7 +7570,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,13 +7819,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931273</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7849,7 +7849,7 @@
         <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>242.1695121525721</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>242.1695121525736</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.872575263447089</v>
+        <v>9.872575263447146</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>371.5073968180795</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.2146126744141</v>
+        <v>269.4450832933836</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52.86845664851259</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>205.2000830738755</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22705,13 +22705,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>93.41236337186186</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>166.1571872936354</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>145.9230939674644</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>100.3033462869334</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,22 +22750,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>94.8394318079292</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>192.0586035981866</v>
       </c>
       <c r="T4" t="n">
-        <v>220.1102960603998</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2190043347733</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>95.95648388677168</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>104.0840080815014</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>6.257951202385702</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>61.40075786968266</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>152.343469135448</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,13 +23896,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>38.13892827624264</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>57.22910392194259</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,19 +24181,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>45.65245098079504</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>108.2431272522988</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>46.23519869957106</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012173</v>
+        <v>57.22910392194169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>-1.083728675134077e-12</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1383128.210843233</v>
+        <v>1383128.210843232</v>
       </c>
     </row>
     <row r="10">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32460.91116143663</v>
+        <v>32460.91116143661</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="D2" t="n">
         <v>41052.08849321416</v>
       </c>
       <c r="E2" t="n">
-        <v>40357.32998450032</v>
+        <v>40357.32998450031</v>
       </c>
       <c r="F2" t="n">
         <v>40357.32998450031</v>
       </c>
       <c r="G2" t="n">
+        <v>40357.32998450029</v>
+      </c>
+      <c r="H2" t="n">
         <v>40357.3299845003</v>
-      </c>
-      <c r="H2" t="n">
-        <v>40357.32998450029</v>
       </c>
       <c r="I2" t="n">
         <v>40357.32998450028</v>
       </c>
       <c r="J2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="K2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="L2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.0884932142</v>
       </c>
       <c r="M2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="N2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321418</v>
       </c>
       <c r="P2" t="n">
         <v>41052.08849321418</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1228620.061871474</v>
+        <v>1228620.061871473</v>
       </c>
       <c r="C3" t="n">
-        <v>95186.49343973033</v>
+        <v>95186.49343973065</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>213599.1454818043</v>
+        <v>213599.1454818041</v>
       </c>
       <c r="K3" t="n">
-        <v>22978.01038359956</v>
+        <v>22978.01038359978</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551185</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="P3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>5.115907697472721e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16555.52139697201</v>
+        <v>16555.52139697205</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815714</v>
+        <v>90964.01098815716</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815714</v>
+        <v>90964.01098815711</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680581</v>
       </c>
       <c r="F4" t="n">
         <v>11776.97621680582</v>
@@ -26436,28 +26436,28 @@
         <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="J4" t="n">
+        <v>19767.83547989935</v>
+      </c>
+      <c r="K4" t="n">
+        <v>19767.8354798993</v>
+      </c>
+      <c r="L4" t="n">
+        <v>19767.8354798993</v>
+      </c>
+      <c r="M4" t="n">
         <v>19767.83547989928</v>
-      </c>
-      <c r="K4" t="n">
-        <v>19767.83547989929</v>
-      </c>
-      <c r="L4" t="n">
-        <v>19767.83547989931</v>
-      </c>
-      <c r="M4" t="n">
-        <v>19767.8354798993</v>
       </c>
       <c r="N4" t="n">
         <v>19767.83547989928</v>
       </c>
       <c r="O4" t="n">
-        <v>19767.83547989927</v>
+        <v>19767.83547989928</v>
       </c>
       <c r="P4" t="n">
-        <v>19767.83547989929</v>
+        <v>19767.8354798993</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100917.4173209746</v>
+        <v>100917.4173209745</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1313632.089427984</v>
+        <v>-1314061.648294572</v>
       </c>
       <c r="C6" t="n">
-        <v>-253032.3564960666</v>
+        <v>-253032.3564960669</v>
       </c>
       <c r="D6" t="n">
-        <v>-157845.8630563363</v>
+        <v>-157845.8630563362</v>
       </c>
       <c r="E6" t="n">
-        <v>-397954.637863568</v>
+        <v>-397989.3757890035</v>
       </c>
       <c r="F6" t="n">
-        <v>-72542.17605621263</v>
+        <v>-72576.91398164832</v>
       </c>
       <c r="G6" t="n">
-        <v>-72542.17605621266</v>
+        <v>-72576.91398164835</v>
       </c>
       <c r="H6" t="n">
-        <v>-72542.1760562126</v>
+        <v>-72576.91398164832</v>
       </c>
       <c r="I6" t="n">
-        <v>-72542.17605621266</v>
+        <v>-72576.91398164837</v>
       </c>
       <c r="J6" t="n">
-        <v>-295479.0083224048</v>
+        <v>-295479.0083224046</v>
       </c>
       <c r="K6" t="n">
-        <v>-104857.8732242001</v>
+        <v>-104857.8732242003</v>
       </c>
       <c r="L6" t="n">
-        <v>-81879.86284060053</v>
+        <v>-81879.86284060049</v>
       </c>
       <c r="M6" t="n">
         <v>-166934.8907761124</v>
       </c>
       <c r="N6" t="n">
-        <v>-81879.86284060049</v>
+        <v>-81879.86284060052</v>
       </c>
       <c r="O6" t="n">
-        <v>-101307.5808342322</v>
+        <v>-101307.5808342323</v>
       </c>
       <c r="P6" t="n">
         <v>-81879.86284060057</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203974</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203974</v>
+      </c>
+      <c r="M2" t="n">
         <v>24.28464749203969</v>
       </c>
-      <c r="K2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203975</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203968</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972899</v>
+        <v>742.1206963972893</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.842170943040401e-14</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="K2" t="n">
-        <v>3.907985046680551e-14</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203971</v>
-      </c>
       <c r="P2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>6.394884621840902e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26960,13 +26960,13 @@
         <v>1016.921054129329</v>
       </c>
       <c r="C3" t="n">
-        <v>72.85564646396938</v>
+        <v>72.85564646396949</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972899</v>
+        <v>742.1206963972893</v>
       </c>
       <c r="C4" t="n">
-        <v>89.28075900500266</v>
+        <v>89.28075900500335</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972899</v>
+        <v>742.1206963972891</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500266</v>
+        <v>89.28075900500357</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>3.907985046680551e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972899</v>
+        <v>742.1206963972893</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500266</v>
+        <v>89.28075900500335</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>259.6421064805537</v>
-      </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>49.27600349225344</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,19 +27780,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>31.24465028923928</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.0772363413195</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>57.31893511150528</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>4.872620036678654</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>35.6394846459454</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>188.3077189484568</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="32">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.088124840720917</v>
+        <v>4.088124840720916</v>
       </c>
       <c r="H2" t="n">
-        <v>41.8675085250331</v>
+        <v>41.86750852503309</v>
       </c>
       <c r="I2" t="n">
         <v>157.6074329218933</v>
       </c>
       <c r="J2" t="n">
-        <v>346.9744857001373</v>
+        <v>346.9744857001372</v>
       </c>
       <c r="K2" t="n">
-        <v>520.0248102078538</v>
+        <v>520.0248102078536</v>
       </c>
       <c r="L2" t="n">
-        <v>645.1367608020666</v>
+        <v>645.1367608020665</v>
       </c>
       <c r="M2" t="n">
-        <v>717.8389509382373</v>
+        <v>717.8389509382371</v>
       </c>
       <c r="N2" t="n">
-        <v>729.4543356419357</v>
+        <v>729.4543356419354</v>
       </c>
       <c r="O2" t="n">
-        <v>688.8030442570169</v>
+        <v>688.8030442570167</v>
       </c>
       <c r="P2" t="n">
-        <v>587.8774622517193</v>
+        <v>587.8774622517191</v>
       </c>
       <c r="Q2" t="n">
-        <v>441.4714913934013</v>
+        <v>441.4714913934011</v>
       </c>
       <c r="R2" t="n">
-        <v>256.8006720259356</v>
+        <v>256.8006720259355</v>
       </c>
       <c r="S2" t="n">
-        <v>93.158144807928</v>
+        <v>93.15814480792797</v>
       </c>
       <c r="T2" t="n">
         <v>17.89576649025582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3270499872576733</v>
+        <v>0.3270499872576732</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.187339625863085</v>
+        <v>2.187339625863084</v>
       </c>
       <c r="H3" t="n">
-        <v>21.12509586030927</v>
+        <v>21.12509586030926</v>
       </c>
       <c r="I3" t="n">
-        <v>75.30971957467202</v>
+        <v>75.30971957467199</v>
       </c>
       <c r="J3" t="n">
-        <v>206.6556266698102</v>
+        <v>206.6556266698101</v>
       </c>
       <c r="K3" t="n">
-        <v>353.2073816026369</v>
+        <v>353.2073816026368</v>
       </c>
       <c r="L3" t="n">
-        <v>474.9309130629475</v>
+        <v>474.9309130629474</v>
       </c>
       <c r="M3" t="n">
-        <v>554.2219745004842</v>
+        <v>554.221974500484</v>
       </c>
       <c r="N3" t="n">
-        <v>568.8905810265574</v>
+        <v>568.8905810265571</v>
       </c>
       <c r="O3" t="n">
-        <v>520.4237398429594</v>
+        <v>520.4237398429593</v>
       </c>
       <c r="P3" t="n">
-        <v>417.6859325913465</v>
+        <v>417.6859325913463</v>
       </c>
       <c r="Q3" t="n">
-        <v>279.2119845224528</v>
+        <v>279.2119845224527</v>
       </c>
       <c r="R3" t="n">
-        <v>135.8069287005169</v>
+        <v>135.8069287005168</v>
       </c>
       <c r="S3" t="n">
-        <v>40.62887419092175</v>
+        <v>40.62887419092174</v>
       </c>
       <c r="T3" t="n">
-        <v>8.816513667404273</v>
+        <v>8.816513667404271</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1439039227541504</v>
+        <v>0.1439039227541503</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,28 +31197,28 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.83379206482338</v>
+        <v>1.833792064823379</v>
       </c>
       <c r="H4" t="n">
         <v>16.30407853997515</v>
       </c>
       <c r="I4" t="n">
-        <v>55.14712864032493</v>
+        <v>55.14712864032492</v>
       </c>
       <c r="J4" t="n">
         <v>129.6490989830129</v>
       </c>
       <c r="K4" t="n">
-        <v>213.0532962585708</v>
+        <v>213.0532962585707</v>
       </c>
       <c r="L4" t="n">
-        <v>272.6348675283778</v>
+        <v>272.6348675283777</v>
       </c>
       <c r="M4" t="n">
-        <v>287.4552415795412</v>
+        <v>287.4552415795411</v>
       </c>
       <c r="N4" t="n">
-        <v>280.6201984288361</v>
+        <v>280.620198428836</v>
       </c>
       <c r="O4" t="n">
         <v>259.1981729443083</v>
@@ -31227,16 +31227,16 @@
         <v>221.7888148219112</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.5550791735287</v>
+        <v>153.5550791735286</v>
       </c>
       <c r="R4" t="n">
-        <v>82.45395956924031</v>
+        <v>82.45395956924028</v>
       </c>
       <c r="S4" t="n">
-        <v>31.95799443878562</v>
+        <v>31.95799443878561</v>
       </c>
       <c r="T4" t="n">
-        <v>7.835293367881712</v>
+        <v>7.835293367881709</v>
       </c>
       <c r="U4" t="n">
         <v>0.100025021717639</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>639.47033547631</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214699</v>
@@ -32318,7 +32318,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>271.1474903386692</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>248.3870916262918</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32549,10 +32549,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>170.9292585737929</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,7 +32789,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>699.0496615458086</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,7 +32810,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>461.1007071927452</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33199,7 +33199,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669223</v>
@@ -33260,13 +33260,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>204.3779992811859</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669242</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,40 +33494,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>172.7144981745678</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>268.5330199802463</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>172.8142548092792</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>165.928581173451</v>
+        <v>165.9285811734509</v>
       </c>
       <c r="K2" t="n">
-        <v>299.9349591628732</v>
+        <v>299.9349591628731</v>
       </c>
       <c r="L2" t="n">
-        <v>409.3703458320794</v>
+        <v>409.3703458320793</v>
       </c>
       <c r="M2" t="n">
-        <v>487.4927177109646</v>
+        <v>487.4927177109644</v>
       </c>
       <c r="N2" t="n">
-        <v>500.0412720453448</v>
+        <v>500.0412720453444</v>
       </c>
       <c r="O2" t="n">
-        <v>458.7048328353302</v>
+        <v>458.70483283533</v>
       </c>
       <c r="P2" t="n">
-        <v>356.6444664964498</v>
+        <v>356.6444664964495</v>
       </c>
       <c r="Q2" t="n">
-        <v>219.1658015189518</v>
+        <v>219.1658015189516</v>
       </c>
       <c r="R2" t="n">
-        <v>41.21513421180344</v>
+        <v>41.21513421180333</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>79.81800000314348</v>
+        <v>79.8180000031434</v>
       </c>
       <c r="K3" t="n">
-        <v>215.3659426282779</v>
+        <v>215.3659426282778</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5460454356454</v>
+        <v>336.3765332830732</v>
       </c>
       <c r="M3" t="n">
-        <v>412.0879405784659</v>
+        <v>412.0879405784656</v>
       </c>
       <c r="N3" t="n">
-        <v>437.5488689432241</v>
+        <v>437.5488689432239</v>
       </c>
       <c r="O3" t="n">
-        <v>377.827495398515</v>
+        <v>377.8274953985149</v>
       </c>
       <c r="P3" t="n">
-        <v>283.7115251770163</v>
+        <v>525.8810373295897</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.2302104364313</v>
+        <v>139.2302104364312</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>36.28991886634017</v>
+        <v>36.28991886634012</v>
       </c>
       <c r="K4" t="n">
-        <v>190.783804432688</v>
+        <v>190.7838044326879</v>
       </c>
       <c r="L4" t="n">
-        <v>300.224892788694</v>
+        <v>300.2248927886939</v>
       </c>
       <c r="M4" t="n">
-        <v>327.0391185413818</v>
+        <v>327.0391185413817</v>
       </c>
       <c r="N4" t="n">
-        <v>324.7523708080647</v>
+        <v>324.7523708080646</v>
       </c>
       <c r="O4" t="n">
         <v>283.783300858348</v>
       </c>
       <c r="P4" t="n">
-        <v>219.0673740868047</v>
+        <v>219.0673740868046</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.39303592183428</v>
+        <v>67.39303592183423</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010444</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35732,13 +35732,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>508.1286233929767</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071396</v>
@@ -35966,7 +35966,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>128.5512458942248</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36197,10 +36197,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>44.09163190712619</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36437,7 +36437,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>556.4534171013642</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36531,7 +36531,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>318.5044627483008</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
         <v>288.6172359016746</v>
@@ -36847,7 +36847,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36908,13 +36908,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>77.54037261451921</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,10 +36996,10 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
         <v>397.5465471980851</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924747</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
-        <v>45.87687150790109</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37239,10 +37239,10 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q34" t="n">
         <v>144.686904791938</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.5512458942248</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819473</v>
       </c>
       <c r="O37" t="n">
         <v>397.5465471980852</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37953,7 +37953,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
